--- a/ordersetting_template1.xlsx
+++ b/ordersetting_template1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA31107-7B3B-41F8-9B67-4ED301EDEC3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF535300-D96E-4FC1-9FF0-5CD6340B87D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -621,6 +621,22 @@
         <v>918</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>43716</v>
+      </c>
+      <c r="B21" s="1">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43717</v>
+      </c>
+      <c r="B22" s="1">
+        <v>920</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
